--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Click to move functionality</t>
   </si>
@@ -39,15 +40,48 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Ticket002</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Issue001</t>
+  </si>
+  <si>
+    <t>Player behaves strangely when Click to Move and Skill Controller are activated</t>
+  </si>
+  <si>
+    <t>Fix Player Canvas billboard;
+Stop Click to Move when Player Skill is playing;
+Copy StatusController script into Player script.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,8 +108,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,37 +415,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D6"/>
+  <dimension ref="B4:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Click to move functionality</t>
   </si>
@@ -57,6 +57,22 @@
     <t>Fix Player Canvas billboard;
 Stop Click to Move when Player Skill is playing;
 Copy StatusController script into Player script.</t>
+  </si>
+  <si>
+    <t>Ticket003</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Fix Click to Move script;
+Fix Billboard effect.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,6 +150,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D7"/>
+  <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +446,10 @@
     <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
     <col min="4" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -438,8 +459,17 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -449,8 +479,17 @@
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>42835</v>
+      </c>
+      <c r="F6" s="10">
+        <v>42835</v>
+      </c>
+      <c r="G6" s="10">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -459,6 +498,30 @@
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>42837</v>
+      </c>
+      <c r="F7" s="11">
+        <v>42837</v>
+      </c>
+      <c r="G7" s="11">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11">
+        <v>42840</v>
+      </c>
+      <c r="F8" s="11">
+        <v>42840</v>
       </c>
     </row>
   </sheetData>
